--- a/base/SynonymBook.xlsx
+++ b/base/SynonymBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scg2600\Documents\eeCarbonVisualization2\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D899C269-E24C-48E3-B79B-73D1B406EBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB1213E-AC68-433F-BBB8-C2669D6C7440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{784D41EA-42FF-4002-9C28-AAAC6409EF92}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>ISCN</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Var 8</t>
-  </si>
-  <si>
-    <t>SOC_Pred1</t>
   </si>
 </sst>
 </file>
@@ -947,7 +944,7 @@
         <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
